--- a/exco.xlsx
+++ b/exco.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9F85CB-6FC2-4961-BF7A-2CCA099214C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD754F9D-C669-4188-B6EC-C2314827D009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="20" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="2835" windowWidth="21630" windowHeight="11295" firstSheet="20" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1993-1994" sheetId="4" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="2017-2018" sheetId="1" r:id="rId25"/>
     <sheet name="2018-2019" sheetId="26" r:id="rId26"/>
     <sheet name="2019-2020" sheetId="27" r:id="rId27"/>
+    <sheet name="2020-2021" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="567">
   <si>
     <t>Position</t>
   </si>
@@ -1657,17 +1658,135 @@
   </si>
   <si>
     <t>梁柏熙</t>
+  </si>
+  <si>
+    <t>Lee Yee Nok</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李以諾</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Law Kon Wa</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅幹樺</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeung Cheuk Long</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊卓朗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chau Man Sang</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>周曼生</t>
+  </si>
+  <si>
+    <t>Internal Secretary &amp; Promotion Secretary</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chan Ho Yi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳可兒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>External &amp; Marketing Secretary</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chan Han Nga</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳嫻雅</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Promotion &amp; I.T. Secretary</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chu King Fung</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱璟鋒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Academic Secretary</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lo Kwai Sang</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>盧貴生</t>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-2021</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nova</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIVIL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHEM</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECOF</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OST</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1675,14 +1794,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1690,14 +1809,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1705,14 +1824,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1720,16 +1839,29 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1752,7 +1884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1784,6 +1916,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2070,16 +2206,16 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="6"/>
+    <col min="1" max="1" width="29.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>488</v>
       </c>
@@ -2090,7 +2226,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>60</v>
       </c>
@@ -2098,15 +2234,15 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -2132,6 +2268,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2144,16 +2281,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -2161,7 +2298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2169,7 +2306,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -2177,10 +2314,10 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2194,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2205,7 +2342,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -2216,7 +2353,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2227,7 +2364,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2238,7 +2375,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -2249,7 +2386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2260,7 +2397,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>116</v>
       </c>
@@ -2271,7 +2408,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -2282,7 +2419,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2293,7 +2430,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
@@ -2304,7 +2441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -2315,7 +2452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -2326,7 +2463,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
@@ -2337,7 +2474,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
@@ -2348,7 +2485,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -2359,7 +2496,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -2371,6 +2508,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2383,16 +2521,16 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -2400,7 +2538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2408,7 +2546,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -2416,10 +2554,10 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2433,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2444,7 +2582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -2455,7 +2593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2466,7 +2604,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2477,7 +2615,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -2488,7 +2626,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2499,7 +2637,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2510,7 +2648,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>119</v>
       </c>
@@ -2521,7 +2659,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>116</v>
       </c>
@@ -2532,7 +2670,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -2543,7 +2681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -2554,7 +2692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -2565,7 +2703,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
@@ -2576,7 +2714,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
@@ -2587,7 +2725,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -2598,7 +2736,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -2610,6 +2748,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2622,16 +2761,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -2639,7 +2778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2647,7 +2786,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -2655,10 +2794,10 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2672,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2686,7 +2825,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -2700,7 +2839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2714,7 +2853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>281</v>
       </c>
@@ -2728,7 +2867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2742,7 +2881,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>119</v>
       </c>
@@ -2756,7 +2895,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
@@ -2770,7 +2909,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -2785,6 +2924,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2797,16 +2937,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -2814,7 +2954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2822,7 +2962,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -2830,10 +2970,10 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2848,6 +2988,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2860,16 +3001,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -2877,7 +3018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2885,7 +3026,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -2893,10 +3034,10 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2910,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2924,7 +3065,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -2938,7 +3079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2952,7 +3093,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2966,7 +3107,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>281</v>
       </c>
@@ -2980,7 +3121,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2994,7 +3135,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -3008,7 +3149,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>119</v>
       </c>
@@ -3022,7 +3163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3037,6 +3178,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3049,16 +3191,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -3066,7 +3208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -3074,7 +3216,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -3082,10 +3224,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3099,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3113,7 +3255,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -3127,7 +3269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3141,7 +3283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -3155,7 +3297,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -3169,7 +3311,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3183,7 +3325,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3197,7 +3339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3211,7 +3353,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>119</v>
       </c>
@@ -3226,6 +3368,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3238,16 +3381,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -3255,7 +3398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -3263,7 +3406,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -3271,10 +3414,10 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3288,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3302,7 +3445,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -3316,7 +3459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3330,7 +3473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -3344,7 +3487,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -3358,7 +3501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3372,7 +3515,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>116</v>
       </c>
@@ -3386,7 +3529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3400,7 +3543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -3414,7 +3557,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>71</v>
       </c>
@@ -3429,6 +3572,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3441,16 +3585,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -3458,7 +3602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -3466,7 +3610,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -3474,10 +3618,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3491,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3505,7 +3649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -3519,7 +3663,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3533,7 +3677,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -3547,7 +3691,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -3561,7 +3705,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3575,7 +3719,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -3589,7 +3733,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -3603,7 +3747,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>71</v>
       </c>
@@ -3617,7 +3761,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3632,6 +3776,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3644,16 +3789,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -3661,7 +3806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -3669,7 +3814,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -3677,10 +3822,10 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3694,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3708,7 +3853,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -3722,7 +3867,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3736,7 +3881,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>199</v>
       </c>
@@ -3750,7 +3895,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3765,6 +3910,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3777,16 +3923,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -3794,7 +3940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -3802,7 +3948,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -3810,10 +3956,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3827,7 +3973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3841,7 +3987,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -3855,7 +4001,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3869,7 +4015,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3883,7 +4029,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3897,7 +4043,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -3911,7 +4057,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -3925,7 +4071,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>71</v>
       </c>
@@ -3940,6 +4086,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3952,16 +4099,16 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="4"/>
+    <col min="1" max="1" width="29.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -3972,7 +4119,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
@@ -3980,7 +4127,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -3988,10 +4135,10 @@
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -4005,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -4016,7 +4163,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
@@ -4027,7 +4174,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -4038,7 +4185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -4049,7 +4196,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -4060,7 +4207,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -4071,7 +4218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>71</v>
       </c>
@@ -4082,7 +4229,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>71</v>
       </c>
@@ -4093,7 +4240,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>420</v>
       </c>
@@ -4105,6 +4252,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4117,16 +4265,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -4134,7 +4282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -4142,7 +4290,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -4150,10 +4298,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4167,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -4181,7 +4329,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -4195,7 +4343,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4209,7 +4357,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -4223,7 +4371,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -4237,7 +4385,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -4251,7 +4399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4266,6 +4414,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4278,16 +4427,16 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -4295,7 +4444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -4303,7 +4452,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -4311,10 +4460,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4328,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -4342,7 +4491,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -4356,7 +4505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4370,7 +4519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -4384,7 +4533,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -4398,7 +4547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -4412,7 +4561,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>115</v>
       </c>
@@ -4426,7 +4575,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>116</v>
       </c>
@@ -4440,7 +4589,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -4454,7 +4603,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>71</v>
       </c>
@@ -4468,7 +4617,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -4482,7 +4631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
@@ -4496,7 +4645,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -4510,7 +4659,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -4524,7 +4673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -4538,7 +4687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -4552,7 +4701,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -4566,7 +4715,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>119</v>
       </c>
@@ -4581,6 +4730,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4593,16 +4743,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -4610,7 +4760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -4618,7 +4768,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -4626,10 +4776,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4643,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -4657,7 +4807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -4671,7 +4821,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4685,7 +4835,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -4699,7 +4849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -4713,7 +4863,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -4727,7 +4877,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4742,6 +4892,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4754,16 +4905,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -4771,7 +4922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -4779,7 +4930,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -4787,10 +4938,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4804,7 +4955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -4818,7 +4969,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -4832,7 +4983,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4846,7 +4997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -4860,7 +5011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -4874,7 +5025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -4888,7 +5039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4902,7 +5053,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -4916,7 +5067,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -4930,7 +5081,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -4944,7 +5095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
@@ -4958,7 +5109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -4973,6 +5124,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4985,16 +5137,16 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -5002,7 +5154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -5010,7 +5162,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -5018,10 +5170,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -5035,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -5049,7 +5201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -5063,7 +5215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5077,7 +5229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -5091,7 +5243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -5105,7 +5257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -5119,7 +5271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -5133,7 +5285,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>490</v>
       </c>
@@ -5147,7 +5299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -5161,7 +5313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -5175,7 +5327,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -5190,6 +5342,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5202,16 +5355,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="13"/>
+    <col min="1" max="1" width="30.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>488</v>
       </c>
@@ -5219,7 +5372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>60</v>
       </c>
@@ -5227,7 +5380,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>58</v>
       </c>
@@ -5235,10 +5388,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
     </row>
-    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
@@ -5252,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
@@ -5266,7 +5419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -5280,7 +5433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
@@ -5294,7 +5447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -5308,7 +5461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -5322,7 +5475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -5336,7 +5489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
@@ -5350,7 +5503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>13</v>
       </c>
@@ -5364,7 +5517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
@@ -5378,10 +5531,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -5395,14 +5549,14 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>488</v>
       </c>
@@ -5410,7 +5564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>60</v>
       </c>
@@ -5418,7 +5572,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>58</v>
       </c>
@@ -5426,7 +5580,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
@@ -5440,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
@@ -5454,7 +5608,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -5468,7 +5622,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
@@ -5482,7 +5636,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -5496,7 +5650,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -5510,7 +5664,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>496</v>
       </c>
@@ -5524,7 +5678,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>495</v>
       </c>
@@ -5538,7 +5692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>497</v>
       </c>
@@ -5552,19 +5706,20 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5574,18 +5729,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07831933-8965-4477-ADED-08DA211FF8AF}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>488</v>
       </c>
@@ -5593,7 +5748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>60</v>
       </c>
@@ -5601,7 +5756,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>58</v>
       </c>
@@ -5609,7 +5764,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
@@ -5623,7 +5778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
@@ -5637,7 +5792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -5651,7 +5806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
@@ -5665,7 +5820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -5679,7 +5834,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -5693,7 +5848,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>518</v>
       </c>
@@ -5707,7 +5862,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -5721,7 +5876,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>519</v>
       </c>
@@ -5735,7 +5890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>520</v>
       </c>
@@ -5750,8 +5905,180 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDA78BB-A86F-45E4-8027-A5892A39E719}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5763,16 +6090,16 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="4"/>
+    <col min="1" max="1" width="29.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -5783,7 +6110,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
@@ -5791,7 +6118,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -5799,10 +6126,10 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -5816,7 +6143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -5827,7 +6154,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
@@ -5838,7 +6165,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -5849,7 +6176,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -5860,7 +6187,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
@@ -5871,7 +6198,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -5882,7 +6209,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -5893,7 +6220,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -5904,7 +6231,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -5915,7 +6242,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>464</v>
       </c>
@@ -5926,7 +6253,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -5937,7 +6264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
@@ -5948,7 +6275,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>71</v>
       </c>
@@ -5959,7 +6286,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>71</v>
       </c>
@@ -5970,7 +6297,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>420</v>
       </c>
@@ -5981,7 +6308,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>119</v>
       </c>
@@ -5992,7 +6319,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>119</v>
       </c>
@@ -6003,7 +6330,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>119</v>
       </c>
@@ -6015,6 +6342,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6027,16 +6355,16 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="4"/>
+    <col min="3" max="3" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -6047,7 +6375,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
@@ -6055,7 +6383,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -6063,10 +6391,10 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -6080,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -6091,7 +6419,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>71</v>
       </c>
@@ -6103,6 +6431,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -6116,16 +6445,16 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -6136,7 +6465,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -6144,7 +6473,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -6152,10 +6481,10 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -6169,7 +6498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -6180,7 +6509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>428</v>
       </c>
@@ -6191,7 +6520,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -6203,6 +6532,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6215,16 +6545,16 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -6235,7 +6565,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -6243,7 +6573,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -6251,10 +6581,10 @@
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -6268,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -6279,7 +6609,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -6290,7 +6620,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>430</v>
       </c>
@@ -6301,7 +6631,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
@@ -6312,7 +6642,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>432</v>
       </c>
@@ -6323,7 +6653,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -6334,7 +6664,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -6345,7 +6675,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -6356,7 +6686,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -6367,7 +6697,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -6378,7 +6708,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>119</v>
       </c>
@@ -6389,7 +6719,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
@@ -6400,7 +6730,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>420</v>
       </c>
@@ -6411,7 +6741,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>420</v>
       </c>
@@ -6423,6 +6753,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6435,16 +6766,16 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="9"/>
+    <col min="1" max="1" width="29.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>488</v>
       </c>
@@ -6452,7 +6783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
@@ -6460,7 +6791,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>58</v>
       </c>
@@ -6468,10 +6799,10 @@
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
     </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -6485,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -6496,7 +6827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>67</v>
       </c>
@@ -6507,7 +6838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -6518,7 +6849,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -6529,7 +6860,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
@@ -6540,7 +6871,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -6551,7 +6882,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
@@ -6562,7 +6893,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -6573,7 +6904,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -6584,7 +6915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -6595,7 +6926,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>119</v>
       </c>
@@ -6606,7 +6937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>119</v>
       </c>
@@ -6617,7 +6948,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>420</v>
       </c>
@@ -6628,7 +6959,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>422</v>
       </c>
@@ -6639,7 +6970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>116</v>
       </c>
@@ -6651,6 +6982,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6663,16 +6995,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -6680,7 +7012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -6688,7 +7020,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -6696,10 +7028,10 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -6713,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -6724,7 +7056,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -6735,7 +7067,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -6746,7 +7078,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -6757,7 +7089,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -6768,7 +7100,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -6779,7 +7111,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>116</v>
       </c>
@@ -6790,7 +7122,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -6801,7 +7133,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -6812,7 +7144,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
@@ -6823,7 +7155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -6834,7 +7166,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -6845,7 +7177,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
@@ -6856,7 +7188,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
@@ -6867,7 +7199,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -6878,7 +7210,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -6890,6 +7222,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6902,16 +7235,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>488</v>
       </c>
@@ -6919,7 +7252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -6927,7 +7260,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -6935,10 +7268,10 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -6952,7 +7285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -6963,7 +7296,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -6974,7 +7307,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -6985,7 +7318,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -6996,7 +7329,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -7007,7 +7340,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -7018,7 +7351,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>116</v>
       </c>
@@ -7029,7 +7362,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -7040,7 +7373,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -7051,7 +7384,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
@@ -7062,7 +7395,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -7073,7 +7406,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -7084,7 +7417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
@@ -7095,7 +7428,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
@@ -7106,7 +7439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -7118,6 +7451,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>